--- a/qa_reports/role_08_svp_project_management.xlsx
+++ b/qa_reports/role_08_svp_project_management.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Role 8 - SVP Project Management" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role 8 - SVP Project Management'!$A$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role 8 - SVP Project Management'!$A$1:$L$48</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -59,12 +59,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6600"/>
         <bgColor rgb="00FF6600"/>
       </patternFill>
@@ -79,6 +73,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0090EE90"/>
         <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -112,13 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -594,37 +594,37 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>AuthContext - Account Deletion</t>
+          <t>ExportHubPage</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>src/contexts/AuthContext.jsx:162</t>
+          <t>src/components/export/ExportHubPage.jsx:243</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>Account deletion batch operation does not clean up all user-related collections. The deleteAccount function only deletes projects owned by the user and notification settings, but fails to delete related data such as comments, assignments, activity_log entries, feedback submissions, due dates, linked items, checklist data, favorites, and export history. This leaves orphaned data in Firestore after account deletion, violating GDPR/data privacy requirements.</t>
+          <t>Project export uses an empty mockItems array, causing all project exports to contain zero checklist items regardless of actual project data.</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>1. Create a user account and populate it with projects, comments, assignments, due dates, and feedback. 2. Navigate to Settings &gt; Danger Zone. 3. Delete the account. 4. Inspect Firestore collections for residual data associated with the deleted user ID.</t>
+          <t>1. Navigate to the Export Hub page. 2. Select a project from the list. 3. Click export for the selected project. 4. Observe the exported file contents.</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>All user-associated data across all collections (comments, assignments, activity_log, feedback, due_dates, favorites, checklist_assignments, etc.) should be deleted as part of the account deletion batch operation.</t>
+          <t>The exported file should contain the actual checklist items and their completion status for the selected project.</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>Only projects (where ownerId matches), notification settings, user profile, and storage files are deleted. Comments, assignments, activity logs, feedback, due dates, linked project items, and other user-generated data remain orphaned in Firestore.</t>
+          <t>The export produces a file with an empty items array because mockItems is hardcoded as an empty array on line 243 with a comment 'This would be actual checklist items'.</t>
         </is>
       </c>
       <c r="K2" s="4" t="inlineStr">
         <is>
-          <t>Potential GDPR/privacy compliance violation. Orphaned data can accumulate indefinitely, increasing storage costs and creating data integrity issues. Users who delete their accounts expect complete data removal.</t>
+          <t>All project-level exports are functionally broken, producing empty data files that provide no value to stakeholders or clients expecting progress reports.</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
@@ -644,7 +644,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
@@ -656,37 +656,37 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>AuthContext - Role Assignment</t>
+          <t>TimeTracker</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>src/contexts/AuthContext.jsx:52</t>
+          <t>src/components/checklist/TimeTracker.jsx:267</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>All new users are automatically assigned the 'project_manager' role with no admin approval workflow or role verification. Both email signup (line 52) and Google OAuth signup (line 90) hardcode the role to 'project_manager'. There is no mechanism for an administrator to review, approve, or modify user roles upon registration, nor is there any role hierarchy enforcement throughout the application.</t>
+          <t>Time entry deletion has no ownership or permission check. Any user who can view the item detail modal can delete any other user's time entries.</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>1. Register a new account via email or Google OAuth. 2. Check the Firestore 'users' document for the new user. 3. Note the role is automatically set to 'project_manager'. 4. Attempt to find any admin approval or role management interface for new registrations.</t>
+          <t>1. User A logs a time entry on a checklist item. 2. User B opens the same checklist item and navigates to the Time tab. 3. User B clicks the delete button on User A's time entry.</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>New user registration should follow a configurable role assignment workflow where administrators can define default roles, approve new users, or assign appropriate roles. At minimum, new users should receive a restricted 'viewer' or 'member' role until promoted.</t>
+          <t>Only the time entry owner or a project manager/admin should be able to delete time entries. Other users should see the delete button disabled or hidden.</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>Every new user automatically receives 'project_manager' role with no admin oversight, approval process, or ability to configure default roles. This grants full project management capabilities to any user who self-registers.</t>
+          <t>The deleteEntry function is called directly without any user ownership verification or role-based permission check, allowing any viewer to delete any entry.</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>Any person who creates an account automatically gets elevated project management permissions. This is a significant security and governance concern for teams that need controlled access, potentially allowing unauthorized users to create/modify/delete projects and assign tasks.</t>
+          <t>Time tracking data integrity is compromised as any team member can remove others' logged time, leading to inaccurate project billing and resource tracking.</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -706,49 +706,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Permission Issue</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>ScheduledReportsPanel</t>
+          <t>FileUpload</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>src/components/reports/ScheduledReportsPanel.jsx:148</t>
+          <t>src/components/checklist/FileUpload.jsx:61-69</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>The ScheduledReportsPanel stores all schedule data in local React state only. The TODO comment on line 154 ('TODO: Load scheduled reports from Firestore') confirms that scheduled reports are never persisted to any backend. This means all scheduled report configurations are lost on page refresh, browser close, or navigation away from the panel.</t>
+          <t>File deletion lacks any permission or ownership check. Any authenticated user who can view the item can delete any file attachment, regardless of who uploaded it.</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>1. Navigate to the Reports &gt; Scheduled Reports panel. 2. Click 'New Schedule' and create a scheduled report with recipients. 3. Save the schedule. 4. Refresh the browser page. 5. Observe that the scheduled report has disappeared.</t>
+          <t>1. User A uploads a file attachment to a checklist item. 2. User B (e.g., a viewer or client role) opens the same item. 3. User B clicks the delete icon on User A's uploaded file and confirms deletion.</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>Scheduled report configurations should persist across sessions. Created schedules should be saved to Firestore and reloaded when the user revisits the panel. Active schedules should actually trigger report generation at the configured intervals.</t>
+          <t>File deletion should be restricted to the file uploader, project managers, or administrators. Client-role users should not be able to delete files.</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>Schedules are stored only in component state (useState on line 148) and the Firestore loading is marked as TODO. All schedules are lost on page refresh. Additionally, the 'Run Now' function on line 224 only simulates execution via setTimeout rather than actually generating reports.</t>
+          <t>The handleDelete and confirmDelete functions execute without any ownership or role verification, allowing any authenticated user to delete any attachment.</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>The entire scheduled reports feature is non-functional in production. Users who configure automated report delivery will find their schedules gone after any navigation event. This represents a complete feature gap for automated reporting workflows.</t>
+          <t>Critical project assets and deliverables can be accidentally or maliciously deleted by unauthorized team members, with no audit trail to identify who performed the deletion.</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -768,49 +768,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Audit Trail</t>
+          <t>Data Integrity</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>useComments - Comment Edit History</t>
+          <t>ItemDetailModal</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useComments.js:80</t>
+          <t>src/components/checklist/ItemDetailModal.jsx:262-271</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>The updateComment function does not maintain an edit history despite the data model supporting it. When a comment is created (line 64), an 'editHistory' array is initialized as empty. However, when updateComment is called (line 80), it only updates the text and updatedAt timestamp, without appending the previous text and edit timestamp to the editHistory array. The original comment text is permanently overwritten.</t>
+          <t>Task assignment uses free-text comma-separated input for user identifiers with no validation against actual team members in the system.</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>1. Open a project and navigate to a checklist item. 2. Add a comment. 3. Edit the comment text. 4. Attempt to view the original comment text or edit history. 5. Inspect the Firestore 'comments' document to verify editHistory is still empty.</t>
+          <t>1. Open any checklist item detail modal. 2. Navigate to the Details tab. 3. In the 'Assigned To' field, type arbitrary text such as 'nonexistent@fake.com, random text'. 4. Click Assign.</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Each comment edit should append the previous version (text, userId, timestamp) to the editHistory array before updating the current text. Users should be able to view the edit history to see what was changed and when.</t>
+          <t>The assignment field should validate user identifiers against registered team members, providing an autocomplete dropdown or user picker that only allows selection of valid users.</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>The editHistory array remains empty forever. The updateDoc call on line 83 only sets text and updatedAt, never pushes to editHistory. Previous comment text is permanently lost on edit.</t>
+          <t>The input accepts any free-text string and splits it by commas to create assignments. There is no validation that the entered values correspond to actual users in the system.</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Loss of audit trail for comment edits. In a collaborative project management context, the inability to track comment changes undermines accountability and creates disputes about what was communicated. The data model supports it but the implementation skips it.</t>
+          <t>Invalid assignments create orphaned tasks that no real user can see in their My Tasks view, causing items to appear assigned but never acted upon, creating workflow dead-ends.</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -832,47 +832,47 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Permission Issue</t>
+          <t>Missing Feature</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>useComments - Comment Deletion</t>
+          <t>TimeTracker</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useComments.js:94</t>
+          <t>src/components/checklist/TimeTracker.jsx:237-278</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>The deleteComment function has no ownership or permission check. Any authenticated user can delete any comment by providing the commentId, regardless of whether they authored the comment or have admin privileges. The function directly calls deleteDoc without verifying that currentUser.uid matches the comment's userId field.</t>
+          <t>Time entries cannot be edited after creation. The component only supports Create and Delete operations for time entries, missing the Update operation from CRUD.</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>1. User A adds a comment on a project checklist item. 2. User B, who has a different role or is a different team member, calls the deleteComment function with User A's comment ID. 3. The comment is permanently deleted without any authorization check.</t>
+          <t>1. Start a timer or add a manual time entry on a checklist item. 2. After the entry is created, attempt to modify the duration or notes. 3. Observe there is no edit capability.</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>Comment deletion should verify that the requesting user is either the comment author (userId matches) or has an admin/project-owner role. Non-authorized users should receive an error message and the delete should be prevented.</t>
+          <t>Each time entry should have an edit button allowing users to correct the duration, update notes, or adjust the timestamp if an error was made.</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>The deleteComment function (line 94-101) takes only commentId, performs no ownership or permission check, and directly executes deleteDoc. Any authenticated user can delete any comment in the system.</t>
+          <t>The time entries list only provides a delete button. There is no edit/update functionality, forcing users to delete and recreate entries to make corrections.</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>Any team member can delete another user's comments, leading to loss of project communication history, potential sabotage of audit trails, and undermining of collaborative workflows. This is especially problematic in multi-team environments.</t>
+          <t>Users who make mistakes in time entries must delete and recreate them, losing the original timestamp and creating gaps in the audit trail of time tracking changes.</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -892,49 +892,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Audit Trail</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>useAssignments - Task Unassignment</t>
+          <t>AuditLogViewer</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useAssignments.js:150</t>
+          <t>src/components/admin/AuditLogViewer.jsx:94-111</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>The unassignTask function does not log activity or send notifications when a task is unassigned. While assignTask (line 42) properly logs activity and sends notifications to assigned users, and updateTaskStatus (line 107) logs activity, the unassignTask function (line 150) only deletes the assignment data without any audit logging or notification to the previously assigned users.</t>
+          <t>The Audit Log Viewer has a TODO placeholder that returns empty logs. No actual audit logging is implemented, making the entire compliance tracking feature non-functional.</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>1. Assign a task to a team member (notifications and activity log entries are created). 2. Unassign the same task. 3. Check the activity log for an 'unassigned_task' entry. 4. Check if the previously assigned users received a notification about being unassigned.</t>
+          <t>1. Navigate to the Admin section and open the Audit Log Viewer. 2. Perform various actions across the platform (create projects, upload files, change roles). 3. Return to the Audit Log Viewer and observe the log entries.</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>Unassigning a task should log an activity entry (e.g., 'unassigned_task') and notify the previously assigned users that they have been removed from the task, maintaining a complete audit trail of assignment changes.</t>
+          <t>The audit log should display timestamped entries for all significant user actions including CRUD operations, exports, role changes, and login/logout events.</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>The unassignTask function only updates local state, sets the Firestore field to null, and shows a toast. No activity is logged and no notifications are sent to the previously assigned users. The previously assigned userIds are not even captured before deletion for notification purposes.</t>
+          <t>The fetchLogs function on line 98 has a TODO comment and always sets logs to an empty array. No audit events are ever recorded or displayed regardless of user activity.</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>Incomplete audit trail for task assignment changes. Team members may not realize they've been removed from a task, causing confusion about responsibilities. Project managers lose visibility into assignment change history.</t>
+          <t>The platform has no compliance audit trail whatsoever. All user actions are untracked, making it impossible to investigate security incidents, demonstrate regulatory compliance, or review change history.</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -954,49 +954,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Missing Feature</t>
+          <t>Audit Trail</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>ReportBuilderPage - Delete Confirmation</t>
+          <t>FileUpload</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>src/components/reports/ReportBuilderPage.jsx:522</t>
+          <t>src/components/checklist/FileUpload.jsx:28-34</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>The delete button for saved reports in the Report Builder sidebar has no confirmation dialog. Clicking the Trash2 icon button immediately calls deleteReport(report.id) without any confirmation prompt. This is inconsistent with other delete patterns in the application (e.g., ScheduledReportsPanel uses a confirmation modal, ReadabilityHistory uses a two-step confirmation).</t>
+          <t>File upload and deletion operations are not logged to any audit trail. There is no record of who uploaded or deleted files, or when these actions occurred.</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>1. Navigate to the Report Builder page. 2. Click 'Saved' in the sidebar to view saved reports. 3. Click the trash icon on any saved report. 4. Observe that the report is deleted immediately without any confirmation.</t>
+          <t>1. Upload a file to a checklist item. 2. Delete a different file from the same item. 3. Check the Activity tab or any audit log for records of these file operations.</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>A confirmation dialog should appear before permanently deleting a saved report, consistent with the delete patterns used elsewhere in the application. The dialog should identify the report name and warn that this action cannot be undone.</t>
+          <t>File upload and deletion events should be recorded in the activity log or audit trail with timestamps, user identity, file name, and action type.</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>Clicking the delete icon (line 522) directly invokes deleteReport(report.id) with no intermediate confirmation step. The report is irreversibly deleted with a single click.</t>
+          <t>The onDrop and confirmDelete functions perform their operations without emitting any activity or audit log events. The uploadedByName field exists on attachments but no corresponding activity entry is created.</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>Users can accidentally delete carefully built custom reports with a single misclick. Reports may contain significant configuration effort (widgets, layouts, data sources) that cannot be recovered, leading to loss of work.</t>
+          <t>There is no accountability for file management actions. If files are deleted or inappropriate files are uploaded, there is no way to identify who performed the action or when it occurred.</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1016,49 +1016,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Scope Gap</t>
+          <t>Risk</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>ScheduledReportsPanel - Email Validation</t>
+          <t>AuditDashboard</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>src/components/reports/ScheduledReportsPanel.jsx:661</t>
+          <t>src/components/audit/dashboard/AuditDashboard.jsx:254-273</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>The scheduled report form accepts comma-separated recipient emails (line 661) but performs no email format validation. The handleSubmit function (line 645) only checks that the recipients field is not empty (line 652), then splits by comma and trims. Invalid email addresses like 'not-an-email', empty strings from double commas, or malformed addresses pass through without validation.</t>
+          <t>Shared audit links have no expiration mechanism or revocation capability. Once a share link is created, it remains accessible indefinitely with no way to revoke access.</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>1. Open the Scheduled Reports panel. 2. Click 'New Schedule'. 3. Navigate to Step 3 (Delivery). 4. Enter invalid email addresses like 'abc, , not@valid, @@@' in the recipients field. 5. Submit the form.</t>
+          <t>1. Run a technical SEO audit. 2. Click the Share button to generate a share link. 3. Optionally set a password. 4. Copy and distribute the link. 5. Attempt to revoke access or set an expiry date.</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>Each recipient email should be validated against a standard email format regex. Invalid emails should be highlighted with error messages, preventing form submission until all recipients have valid email addresses.</t>
+          <t>Share links should have configurable expiration dates and a mechanism to revoke access. Expired links should return a 'link expired' message.</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>The form only checks that the recipients string is not blank (line 652). It splits by comma and filters empty strings, but 'abc', '@@@', and other malformed addresses are accepted as valid recipients, which would cause delivery failures.</t>
+          <t>The share modal creates persistent links with optional password protection but no expiration date field and no revocation mechanism. Links remain active indefinitely.</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>Scheduled reports with invalid recipient emails will silently fail to deliver. Users won't discover the issue until they notice missing reports, wasting scheduling effort and potentially missing critical report deadlines.</t>
+          <t>Confidential SEO audit data may remain accessible to external parties long after the intended sharing period, creating data security and confidentiality risks for client information.</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1078,49 +1078,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Lifecycle Issue</t>
+          <t>Workflow Gap</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>ReadabilityWeightConfig - State Persistence</t>
+          <t>ProjectCreationWizard</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>src/components/readability/ReadabilityWeightConfig.jsx:26</t>
+          <t>src/components/projects/ProjectCreationWizard.jsx:122-123</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>The ReadabilityWeightConfig component stores custom weight configurations only in local component state. When the user adjusts weights and clicks 'Apply Weights', the onChange callback fires (line 41) but there is no persistence mechanism. The weights revert to defaults when the component remounts. The parent ReadabilityDashboard (line 447) only logs the weights to console. Custom weight configurations are lost on page navigation.</t>
+          <t>The project creation wizard does not validate that the target launch date is after the start date. Users can create projects where the deadline precedes the start date.</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>1. Analyze a URL with the AI Readability Checker. 2. On the dashboard, click 'Adjust Weights'. 3. Modify category weights (e.g., set AI Signals to 40%). 4. Click 'Apply Weights'. 5. Navigate away and return to the same analysis. 6. Open the weight config again and observe the weights have reverted to defaults.</t>
+          <t>1. Navigate to Create New Project. 2. In Step 2 (Timeline), set the start date to 2026-06-01. 3. Set the target launch date to 2026-01-01 (before the start date). 4. Proceed through the wizard and create the project.</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>Custom weight configurations should be persisted (via localStorage, Firestore, or user preferences) so that users can maintain their preferred scoring weights across sessions and analyses. The dashboard should recalculate scores when weights change.</t>
+          <t>The wizard should validate that targetLaunchDate is after startDate and display an error message if the dates are logically inconsistent.</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>Weights exist only in component state (useState on line 26). The parent's onChange handler (ReadabilityDashboard.jsx:448) only does console.log('Custom weights applied:', weights). There is no persistence and no recalculation of the overall or category scores with the new weights.</t>
+          <t>The validateStep function for step 2 only checks that both dates are non-empty. It does not compare them to ensure targetLaunchDate &gt; startDate, allowing logically invalid timelines.</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>Users who configure custom weights for their industry or use case must re-configure them every time they view an analysis. The feature appears functional but provides no lasting value. Additionally, applying weights has no effect on the displayed scores.</t>
+          <t>Projects with impossible timelines will show incorrect progress metrics, negative days-remaining counts, and immediately appear as 'overdue' in the Progress Dashboard.</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1140,49 +1140,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Data Integrity</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>NotificationPanel - Missing Delete/Clear Functionality</t>
+          <t>ProgressDashboard</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>src/components/shared/NotificationPanel.jsx:11</t>
+          <t>src/components/projects/ProgressDashboard.jsx:346-358</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>The NotificationPanel provides 'Mark all as read' but has no ability to delete individual notifications or clear/archive notification history. The useNotifications hook exposes only markAsRead and markAllAsRead. Over time, the notification list grows unbounded with no way for users to remove stale, irrelevant, or actioned notifications.</t>
+          <t>The Progress Dashboard uses randomized mock data for project statistics when real stats are not available, displaying fabricated completion percentages and critical item counts.</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>1. Accumulate several notifications by receiving task assignments, mentions, etc. 2. Mark all as read. 3. Attempt to delete a specific notification or clear the notification history. 4. Observe there is no delete or clear option available.</t>
+          <t>1. Create a new project with no checklist progress. 2. Navigate to the Progress Dashboard. 3. Observe the completion percentage and critical item counts for the project.</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>Users should be able to delete individual notifications (swipe or click delete) and clear all notifications or clear read notifications. There should also be a notification retention policy to automatically remove old notifications.</t>
+          <t>Projects without stats data should show zero progress, zero completed items, and zero critical items, or fetch real statistics from the checklist completion state.</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>The notification panel only supports reading notifications and marking them as read. There is no delete, clear, or archive functionality. Notifications accumulate indefinitely in the list.</t>
+          <t>When project.stats is undefined, the code generates random values using Math.random() for completed items, percentage, and critical counts, displaying fabricated data to users.</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>Poor user experience as notification lists become cluttered over time. Users cannot distinguish between actionable and stale notifications. The 'View all notifications' link (line 172) routes to '/notifications' which doesn't appear to have additional management capabilities.</t>
+          <t>Project managers and stakeholders see misleading progress data that does not reflect actual project status, potentially leading to incorrect resource allocation and scheduling decisions.</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1202,49 +1202,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Missing Feature</t>
+          <t>Scope Gap</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>LinkToProjectModal - Unlink Capability</t>
+          <t>ExportHubPage</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>src/components/shared/LinkToProjectModal.jsx:55</t>
+          <t>src/components/export/ExportHubPage.jsx:321</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>The LinkToProjectModal allows linking items to projects but provides no mechanism to unlink an item from a project. Once an item is linked (handleLink function, line 55), the 'Linked' badge is shown (line 182) and the button becomes disabled. There is no unlink/remove association button or workflow. This is a missing CRUD operation - the 'Delete' part of linking is absent.</t>
+          <t>The project selection dropdown in the Export Hub only shows the first 6 projects, with no pagination or search, preventing users from exporting data for projects beyond position 6.</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>1. Open a tool item (e.g., audit result). 2. Click 'Link to Project'. 3. Link the item to a project. 4. Observe the project now shows 'Linked' status. 5. Attempt to unlink the item from the project. 6. Note there is no unlink option available.</t>
+          <t>1. Create more than 6 projects in the Content Planner. 2. Navigate to the Export Hub. 3. Open the project selector dropdown. 4. Attempt to find projects that were created 7th or later.</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>Already-linked projects should display an 'Unlink' button or toggle that allows removing the association. The modal should support bidirectional CRUD for project-item links (both link and unlink operations).</t>
+          <t>All projects should be accessible in the project selector, either through scrollable list, search/filter, or pagination.</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>The modal only supports one-way linking. Once linked, the project row shows a green 'Linked' badge and the button is disabled (line 151). There is no unlink action available. The user must manage project links through other means (if available) or cannot remove incorrect links at all.</t>
+          <t>The project list is truncated using projects.slice(0, 6), making projects beyond the first 6 completely inaccessible for export operations.</t>
         </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>Users who accidentally link an item to the wrong project, or who need to reorganize project associations, have no way to correct the linkage. This creates data management problems and reduces the usefulness of the project linking feature.</t>
+          <t>Organizations with more than 6 projects cannot export data for their newer projects, creating an artificial limitation that prevents comprehensive reporting across the full project portfolio.</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1264,49 +1264,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Audit Trail</t>
+          <t>Workflow Gap</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>SchemaLibraryPanel - Delete Without Audit</t>
+          <t>BatchAuditPanel</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>src/components/schema-generator/SchemaLibraryPanel.jsx:82</t>
+          <t>src/components/audit/BatchAuditPanel.jsx:313-315</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Schema deletion in the Schema Library uses a browser confirm() dialog and does not log the deletion action. The handleDelete function (line 82) uses confirm() for confirmation and then directly calls deleteSchema. No audit trail entry is created for who deleted which schema and when. In a team environment, this makes it impossible to track schema library changes.</t>
+          <t>The batch audit pause mechanism does not actually stop the running audit loop because the isRunning state check on line 315 captures the stale closure value.</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>1. Navigate to the Schema Generator. 2. Open the Schema Library. 3. Delete a saved schema. 4. Confirm the browser dialog. 5. Check for any audit log entry recording the deletion. 6. Attempt to recover the deleted schema.</t>
+          <t>1. Add 10+ URLs to the batch audit panel. 2. Start the batch audit. 3. While audits are running, click the Pause button. 4. Observe whether processing actually stops.</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>Schema deletions should be logged in an audit trail with the user who performed the deletion, the schema name/ID, and timestamp. A proper confirmation modal (consistent with the rest of the application) should be used instead of browser confirm(). Ideally, soft-delete or undo should be supported.</t>
+          <t>Clicking Pause should immediately stop processing the next URL in the queue after the current one finishes.</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>The handleDelete function (line 82-86) uses browser confirm() (not a styled modal), then calls deleteSchema with no audit logging. The deletion is permanent with no recovery option and no record of who deleted what.</t>
+          <t>The for loop on line 313 checks 'if (!isRunning) break;' but isRunning is captured in the closure at the time runBatchAudit was called. Setting isRunning to false via pauseAudit will not break the loop because the loop references the stale closure value.</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>In team environments, any user can delete shared schemas with no accountability. If a critical schema template is accidentally or maliciously deleted, there is no way to determine who did it or when. The use of browser confirm() is also inconsistent with the application's UI patterns.</t>
+          <t>Users cannot effectively pause a long-running batch audit, potentially overwhelming target servers or consuming unnecessary resources when a pause is needed.</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1326,49 +1326,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Data Integrity</t>
+          <t>Lifecycle Issue</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>useMyTasks - Unfiltered Collection Query</t>
+          <t>AuditDashboard</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useAssignments.js:241</t>
+          <t>src/components/audit/dashboard/AuditDashboard.jsx:235</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>The useMyTasks hook queries the entire 'checklist_assignments' collection with no server-side filtering (line 241). It fetches every assignment document across all projects, then filters client-side to find tasks assigned to the current user (line 252). This is a performance and data exposure issue - the client receives assignment data for all users across all projects.</t>
+          <t>Saved audits cannot be updated or deleted. The save function checks if savedAuditId exists and returns early with a toast message, preventing any modifications to previously saved audit results.</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>1. Log in as any user. 2. Navigate to 'My Tasks'. 3. Observe network requests to Firestore. 4. Note that the query fetches all documents from the checklist_assignments collection with no where() clause.</t>
+          <t>1. Run an SEO audit and view results. 2. Click Save to persist the audit. 3. Attempt to re-save after making notes or changes. 4. Attempt to delete the saved audit.</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>The query should use Firestore security rules and a server-side where() clause to only return assignments relevant to the current user. This could be achieved with an array-contains query on the assignedTo field or by restructuring the data to support efficient per-user queries.</t>
+          <t>Users should be able to update saved audits (e.g., add notes, re-run and update scores) and delete audits they no longer need.</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>The query on line 241 fetches the entire collection: query(collection(db, 'checklist_assignments')). All assignment data for all projects and all users is downloaded to the client before filtering. The comment on line 239 acknowledges this: 'This is a simplified version'.</t>
+          <t>The save button becomes non-functional after first save, displaying 'Audit already saved'. There is no update or delete functionality for saved audits.</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>As the application scales, this will cause significant performance degradation, increased Firestore read costs, and potential data exposure where users can access assignment details of other users through browser developer tools. This is both a performance and security concern.</t>
+          <t>Saved audits become immutable artifacts with no lifecycle management. Users cannot correct errors, update results, or clean up outdated audits, leading to data clutter.</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1388,49 +1388,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>LOW</t>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Permission Issue</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>DueDatesWidget - View All Dead End</t>
+          <t>TeamManagementPage</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>src/components/shared/DueDatesWidget.jsx:262</t>
+          <t>src/components/projects/TeamManagementPage.jsx:36-51</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>The 'View all' button in the DueDatesWidget (displayed when there are more than 5 due dates) has no onClick handler and no navigation target. It renders as a button element with text showing the total count but clicking it does nothing. This is a workflow dead-end where users are informed that more items exist but cannot access them.</t>
+          <t>Project Managers can change any user's role to Administrator, effectively escalating privileges beyond their own level. There is no restriction preventing PMs from assigning the admin role.</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>1. Create more than 5 due date items. 2. Observe the DueDatesWidget shows 5 items plus a 'View all (N)' button. 3. Click the 'View all' button. 4. Nothing happens.</t>
+          <t>1. Log in as a user with the Project Manager role. 2. Navigate to Team Management. 3. Click Edit Role on any team member. 4. Select 'Administrator' from the dropdown. 5. The role change succeeds.</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>The 'View all' button should navigate to a full due dates management page, expand the widget to show all items, or open a modal with the complete list including sorting and filtering capabilities.</t>
+          <t>Project Managers should only be able to assign roles at or below their own permission level. Only Administrators should be able to promote users to Administrator.</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>The button on line 262 is rendered as: &lt;button className="..."&gt;View all ({count})&lt;/button&gt; with no onClick handler, href, or any interactive behavior. It is a non-functional button.</t>
+          <t>The handleUpdateRole function directly updates the Firestore user document with the selected role value without checking whether the current user has the authority to assign that role level.</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>Users with many due dates cannot view or manage items beyond the first 5 displayed in the widget. This limits the usefulness of the due dates feature for active project managers who may have dozens of upcoming deadlines.</t>
+          <t>Any Project Manager can escalate their own or others' privileges to Administrator, bypassing the intended role hierarchy and potentially gaining access to system-wide administrative functions.</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1450,49 +1450,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Scope Gap</t>
+          <t>Audit Trail</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>FeedbackWidget - No Admin Review Interface</t>
+          <t>TeamManagementPage</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>src/components/shared/FeedbackWidget.jsx:68</t>
+          <t>src/components/projects/TeamManagementPage.jsx:36-51</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>The FeedbackWidget collects user feedback and saves it to a 'feedback' Firestore collection with a 'status: new' field (line 78), but there is no corresponding admin interface to review, respond to, or manage feedback submissions. The feedback data is written and never consumed, creating a write-only data sink with no lifecycle management.</t>
+          <t>Role changes are not logged to any audit trail. When a user's role is updated, no record is created documenting who made the change, what the previous role was, or when it occurred.</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>1. Submit feedback via the FeedbackWidget. 2. Verify the feedback is saved to Firestore. 3. Search the application for any admin panel or interface to view submitted feedback. 4. No such interface exists.</t>
+          <t>1. As an admin or PM, navigate to Team Management. 2. Change a team member's role from SEO Specialist to Project Manager. 3. Check for any log or history of this change.</t>
         </is>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>There should be an admin-accessible feedback management interface where team leads or administrators can review submissions, update status (new/in-review/resolved/closed), respond to users, and generate insights from feedback patterns.</t>
+          <t>Role changes should be logged with the modifier's identity, the target user, the old role, the new role, and a timestamp, visible in the audit log.</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>Feedback is collected and stored in Firestore with 'status: new' but no part of the application reads or manages this data. The status field suggests a lifecycle was intended but never implemented. Feedback accumulates indefinitely with no review process.</t>
+          <t>The handleUpdateRole function only updates the Firestore document and shows a toast notification. No audit log entry is created for the role change.</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>User feedback is effectively lost despite being stored. The feedback feature creates a false expectation that submissions will be reviewed and acted upon. Without a management interface, the feature provides no value to the product team and occupies Firestore storage without purpose.</t>
+          <t>There is no accountability or traceability for permission changes, making it impossible to investigate unauthorized role escalations or review the history of access control decisions.</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1512,49 +1512,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Permission Issue</t>
+          <t>Scope Gap</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>useProjects</t>
+          <t>AuditHistoryPanel</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useProjects.js:80</t>
+          <t>src/components/audit/AuditHistoryPanel.jsx:325</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>The deleteProject function performs no authorization check before deleting a project document from Firestore. Any authenticated user who obtains a projectId can call deleteProject and permanently remove it, regardless of whether they are the owner or have the canDeleteProjects permission. The roles.js file defines canDeleteProjects as true only for ADMIN, yet this permission is never checked.</t>
+          <t>The audit history list is limited to showing only 10 audits with no pagination or 'load more' capability, preventing access to older audit history.</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>1. Log in as a user with the 'content_writer' role (canDeleteProjects: false). 2. Obtain or guess a projectId belonging to another user. 3. Call deleteProject(projectId) from the hook. 4. Observe the project is permanently deleted without any ownership or permission validation.</t>
+          <t>1. Run more than 10 audits for the same domain over time. 2. Navigate to the Audit History panel. 3. Attempt to view audits older than the 10 most recent.</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>deleteProject should verify that the calling user has the canDeleteProjects permission (via hasPermission from roles.js) AND is the owner of the project, or is an admin. Unauthorized delete attempts should be rejected with an appropriate error.</t>
+          <t>The audit history should support pagination, infinite scroll, or a 'load more' button to access the complete audit history beyond the initial 10 entries.</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>deleteProject immediately calls deleteDoc on the provided projectId with no ownership or permission check. Any authenticated user can delete any project.</t>
+          <t>The list uses filteredAudits.slice(0, 10) on line 325, permanently capping the visible history at 10 entries with no way to access older records.</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>Critical data loss risk. Any authenticated user can delete projects belonging to other users, destroying all associated project data. This undermines the entire role-based permission model defined in roles.js.</t>
+          <t>Long-term trend analysis and historical comparison are limited to the 10 most recent audits. Users tracking SEO improvements over months or years cannot access their full audit history.</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>useProjects</t>
+          <t>AuthContext - Account Deletion</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useProjects.js:80</t>
+          <t>src/contexts/AuthContext.jsx:162</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>When a project is deleted, there is no cascade cleanup of related data. The system stores comments (useComments), file attachments (useFileAttachments), time entries (useTimeTracking), project links (useProjectLinkedItems), and due dates (useDueDates) that all reference the projectId. Deleting a project leaves all of these child records orphaned in Firestore, creating data integrity issues and potential storage waste.</t>
+          <t>Account deletion batch operation does not clean up all user-related collections. The deleteAccount function only deletes projects owned by the user and notification settings, but fails to delete related data such as comments, assignments, activity_log entries, feedback submissions, due dates, linked items, checklist data, favorites, and export history. This leaves orphaned data in Firestore after account deletion, violating GDPR/data privacy requirements.</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>1. Create a project and add comments, file attachments, time entries, linked items, and due dates to it. 2. Delete the project using deleteProject. 3. Query the 'comments', 'attachments', 'time_entries', 'projectLinks', and 'due_dates' collections for the deleted projectId. 4. Observe all child records still exist as orphans.</t>
+          <t>1. Create a user account and populate it with projects, comments, assignments, due dates, and feedback. 2. Navigate to Settings &gt; Danger Zone. 3. Delete the account. 4. Inspect Firestore collections for residual data associated with the deleted user ID.</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>Deleting a project should cascade delete or archive all associated child records (comments, attachments, time entries, project links, due dates) or at minimum use a soft-delete pattern that marks the project as deleted while preserving referential integrity.</t>
+          <t>All user-associated data across all collections (comments, assignments, activity_log, feedback, due_dates, favorites, checklist_assignments, etc.) should be deleted as part of the account deletion batch operation.</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>Only the project document itself is deleted. All associated child records remain in Firestore as orphans with references to a non-existent project.</t>
+          <t>Only projects (where ownerId matches), notification settings, user profile, and storage files are deleted. Comments, assignments, activity logs, feedback, due dates, linked project items, and other user-generated data remain orphaned in Firestore.</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>Orphaned data accumulates over time, increasing storage costs and causing confusion when orphaned records appear in queries. File attachments in Firebase Storage associated with deleted projects remain, consuming storage with no way to clean them up.</t>
+          <t>Potential GDPR/privacy compliance violation. Orphaned data can accumulate indefinitely, increasing storage costs and creating data integrity issues. Users who delete their accounts expect complete data removal.</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1636,7 +1636,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
@@ -1648,37 +1648,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>useComments</t>
+          <t>AuthContext - Role Assignment</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useComments.js:94</t>
+          <t>src/contexts/AuthContext.jsx:52</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>The deleteComment and updateComment functions do not verify that the calling user is the author of the comment. Any authenticated user who can access a project can delete or modify any other user's comments. Additionally, the isInternal flag on comments (which controls visibility for internal-only comments) has no permission enforcement -- the CLIENT role (which has canViewInternal: false) could potentially see or modify internal comments if they have access to the itemId.</t>
+          <t>All new users are automatically assigned the 'project_manager' role with no admin approval workflow or role verification. Both email signup (line 52) and Google OAuth signup (line 90) hardcode the role to 'project_manager'. There is no mechanism for an administrator to review, approve, or modify user roles upon registration, nor is there any role hierarchy enforcement throughout the application.</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>1. User A adds a comment on a checklist item. 2. User B (different user, same project) calls deleteComment(commentId) with User A's comment ID. 3. Observe the comment is deleted without any ownership verification. 4. Alternatively, User B calls updateComment to modify User A's comment text.</t>
+          <t>1. Register a new account via email or Google OAuth. 2. Check the Firestore 'users' document for the new user. 3. Note the role is automatically set to 'project_manager'. 4. Attempt to find any admin approval or role management interface for new registrations.</t>
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>deleteComment and updateComment should verify the calling user is the comment author (or an admin). Internal comments should only be visible to users with canViewInternal permission.</t>
+          <t>New user registration should follow a configurable role assignment workflow where administrators can define default roles, approve new users, or assign appropriate roles. At minimum, new users should receive a restricted 'viewer' or 'member' role until promoted.</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>Both deleteComment and updateComment accept any commentId and execute the operation without ownership checks. Internal comments have no access control enforcement.</t>
+          <t>Every new user automatically receives 'project_manager' role with no admin oversight, approval process, or ability to configure default roles. This grants full project management capabilities to any user who self-registers.</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>Users can tamper with or delete other users' comments, destroying audit trail evidence and collaboration history. Internal comments may be visible to client-role users.</t>
+          <t>Any person who creates an account automatically gets elevated project management permissions. This is a significant security and governance concern for teams that need controlled access, potentially allowing unauthorized users to create/modify/delete projects and assign tasks.</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1698,49 +1698,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Audit Trail</t>
+          <t>Workflow Gap</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>useComments</t>
+          <t>ScheduledReportsPanel</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useComments.js:80</t>
+          <t>src/components/reports/ScheduledReportsPanel.jsx:148</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>The updateComment function updates the comment text and sets updatedAt, but does not append the previous version to the editHistory array that is initialized as an empty array on comment creation (line 64). The editHistory field exists in the data model but is never populated, making it impossible to track what a comment originally said or who changed it.</t>
+          <t>The ScheduledReportsPanel stores all schedule data in local React state only. The TODO comment on line 154 ('TODO: Load scheduled reports from Firestore') confirms that scheduled reports are never persisted to any backend. This means all scheduled report configurations are lost on page refresh, browser close, or navigation away from the panel.</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>1. Add a comment to a checklist item. Note the editHistory is initialized as []. 2. Edit the comment using updateComment. 3. Check the comment document in Firestore. 4. Observe that editHistory is still an empty array -- the previous text was not preserved.</t>
+          <t>1. Navigate to the Reports &gt; Scheduled Reports panel. 2. Click 'New Schedule' and create a scheduled report with recipients. 3. Save the schedule. 4. Refresh the browser page. 5. Observe that the scheduled report has disappeared.</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>When a comment is updated, the previous text, the editor's userId, and a timestamp should be appended to the editHistory array, preserving a complete audit trail of all comment revisions.</t>
+          <t>Scheduled report configurations should persist across sessions. Created schedules should be saved to Firestore and reloaded when the user revisits the panel. Active schedules should actually trigger report generation at the configured intervals.</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>The editHistory array is created but never written to during updates. The updateDoc call at line 83 only sets 'text' and 'updatedAt', ignoring editHistory entirely.</t>
+          <t>Schedules are stored only in component state (useState on line 148) and the Firestore loading is marked as TODO. All schedules are lost on page refresh. Additionally, the 'Run Now' function on line 224 only simulates execution via setTimeout rather than actually generating reports.</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>No audit trail for comment edits. In regulated environments or contentious projects, the inability to see what a comment originally said undermines accountability and compliance requirements.</t>
+          <t>The entire scheduled reports feature is non-functional in production. Users who configure automated report delivery will find their schedules gone after any navigation event. This represents a complete feature gap for automated reporting workflows.</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1760,49 +1760,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Permission Issue</t>
+          <t>Audit Trail</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>useTimeTracking</t>
+          <t>useComments - Comment Edit History</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useTimeTracking.js:166</t>
+          <t>src/hooks/useComments.js:80</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>The deleteEntry function for time tracking performs no ownership verification. Any user who knows a time entry ID can delete any other user's time entry. The hook loads all time entries for a project (not filtered by user), so all entries are visible to all project participants, but the delete operation should be restricted to the entry owner or an admin.</t>
+          <t>The updateComment function does not maintain an edit history despite the data model supporting it. When a comment is created (line 64), an 'editHistory' array is initialized as empty. However, when updateComment is called (line 80), it only updates the text and updatedAt timestamp, without appending the previous text and edit timestamp to the editHistory array. The original comment text is permanently overwritten.</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>1. User A starts and stops a timer, creating a time entry. 2. User B on the same project calls deleteEntry(entryId) with User A's entry ID. 3. Observe the time entry is deleted without any ownership check.</t>
+          <t>1. Open a project and navigate to a checklist item. 2. Add a comment. 3. Edit the comment text. 4. Attempt to view the original comment text or edit history. 5. Inspect the Firestore 'comments' document to verify editHistory is still empty.</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>deleteEntry should verify the calling user is the entry owner (entry.userId === currentUser.uid) or has admin privileges before allowing deletion.</t>
+          <t>Each comment edit should append the previous version (text, userId, timestamp) to the editHistory array before updating the current text. Users should be able to view the edit history to see what was changed and when.</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>deleteEntry directly calls deleteDoc without any ownership verification. Any authenticated user can delete any time entry they have the ID for.</t>
+          <t>The editHistory array remains empty forever. The updateDoc call on line 83 only sets text and updatedAt, never pushes to editHistory. Previous comment text is permanently lost on edit.</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>Time tracking data can be tampered with by any project member, undermining project management accuracy and potentially allowing billing fraud.</t>
+          <t>Loss of audit trail for comment edits. In a collaborative project management context, the inability to track comment changes undermines accountability and creates disputes about what was communicated. The data model supports it but the implementation skips it.</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1822,7 +1822,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
@@ -1834,37 +1834,37 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>useFileAttachments</t>
+          <t>useComments - Comment Deletion</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useFileAttachments.js:171</t>
+          <t>src/hooks/useComments.js:94</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>The deleteFile function does not verify that the current user is the uploader of the file (uploadedBy field). Any user with access to the project and item can delete file attachments uploaded by other users. The attachment metadata includes 'uploadedBy' (line 142) but this field is never checked during deletion.</t>
+          <t>The deleteComment function has no ownership or permission check. Any authenticated user can delete any comment by providing the commentId, regardless of whether they authored the comment or have admin privileges. The function directly calls deleteDoc without verifying that currentUser.uid matches the comment's userId field.</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>1. User A uploads a file attachment to a checklist item. 2. User B, who also has access to the project, calls deleteFile(attachmentId). 3. Observe the file is deleted from both Firebase Storage and Firestore without ownership verification.</t>
+          <t>1. User A adds a comment on a project checklist item. 2. User B, who has a different role or is a different team member, calls the deleteComment function with User A's comment ID. 3. The comment is permanently deleted without any authorization check.</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>deleteFile should check that currentUser.uid matches attachment.uploadedBy, or that the user has admin/project-manager privileges, before allowing deletion.</t>
+          <t>Comment deletion should verify that the requesting user is either the comment author (userId matches) or has an admin/project-owner role. Non-authorized users should receive an error message and the delete should be prevented.</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>deleteFile finds the attachment in the local state array and immediately deletes it from both Storage and Firestore without any authorization check.</t>
+          <t>The deleteComment function (line 94-101) takes only commentId, performs no ownership or permission check, and directly executes deleteDoc. Any authenticated user can delete any comment in the system.</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>Users can delete other team members' file uploads, potentially destroying evidence, deliverables, or compliance documentation.</t>
+          <t>Any team member can delete another user's comments, leading to loss of project communication history, potential sabotage of audit trails, and undermining of collaborative workflows. This is especially problematic in multi-team environments.</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -1886,47 +1886,47 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Scope Gap</t>
+          <t>Workflow Gap</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>useAssignments - Task Unassignment</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>src/utils/roles.js:95</t>
+          <t>src/hooks/useAssignments.js:150</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>The permission system defined in roles.js is comprehensive but almost entirely unenforced in the CRUD hooks. The ROLE_PERMISSIONS matrix defines granular permissions (canCreateProjects, canDeleteProjects, canAssignTasks, canEditAllItems, canViewAllProjects, canManageTeam, etc.), and the hasPermission() utility function exists, but none of the data mutation hooks (useProjects, useComments, useTimeTracking, useFileAttachments, useSchemaLibrary, useReportBuilder, useDueDates, useProjectLinkedItems) import or call hasPermission() before performing create/update/delete operations.</t>
+          <t>The unassignTask function does not log activity or send notifications when a task is unassigned. While assignTask (line 42) properly logs activity and sends notifications to assigned users, and updateTaskStatus (line 107) logs activity, the unassignTask function (line 150) only deletes the assignment data without any audit logging or notification to the previously assigned users.</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>1. Search the entire codebase (hooks directory) for imports of 'hasPermission' or 'ROLE_PERMISSIONS' from roles.js. 2. Observe that none of the CRUD hooks reference the permission system. 3. Log in as a CLIENT role user (canCreateProjects: false, canExport: false). 4. Attempt to create a project via createProject -- observe it succeeds despite the permission matrix saying otherwise.</t>
+          <t>1. Assign a task to a team member (notifications and activity log entries are created). 2. Unassign the same task. 3. Check the activity log for an 'unassigned_task' entry. 4. Check if the previously assigned users received a notification about being unassigned.</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>All CRUD hooks should enforce the permission matrix defined in roles.js. For example, createProject should check hasPermission(userRole, 'canCreateProjects') before allowing the operation.</t>
+          <t>Unassigning a task should log an activity entry (e.g., 'unassigned_task') and notify the previously assigned users that they have been removed from the task, maintaining a complete audit trail of assignment changes.</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>The permission matrix in roles.js is purely decorative. No CRUD hook enforces these permissions, making the entire role-based access control system non-functional at the data layer.</t>
+          <t>The unassignTask function only updates local state, sets the Firestore field to null, and shows a toast. No activity is logged and no notifications are sent to the previously assigned users. The previously assigned userIds are not even captured before deletion for notification purposes.</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>The defined role hierarchy (Admin &gt; PM &gt; SEO Specialist &gt; Developer &gt; Content Writer &gt; Client) is not enforced. Clients can create projects, delete data, and perform actions explicitly forbidden by their role. This is a fundamental security gap.</t>
+          <t>Incomplete audit trail for task assignment changes. Team members may not realize they've been removed from a task, causing confusion about responsibilities. Project managers lose visibility into assignment change history.</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -1948,47 +1948,47 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Missing Feature</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>useNotifications</t>
+          <t>ReportBuilderPage - Delete Confirmation</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useNotifications.js:77</t>
+          <t>src/components/reports/ReportBuilderPage.jsx:522</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>The useNotifications hook only provides markAsRead and markAllAsRead operations but has no capability to delete notifications. Over time, users will accumulate an unbounded number of notification documents in Firestore. The query at line 30 loads ALL notifications for the user with no limit, which will cause performance degradation as the notification count grows. There is also no mechanism for notification expiry or cleanup.</t>
+          <t>The delete button for saved reports in the Report Builder sidebar has no confirmation dialog. Clicking the Trash2 icon button immediately calls deleteReport(report.id) without any confirmation prompt. This is inconsistent with other delete patterns in the application (e.g., ScheduledReportsPanel uses a confirmation modal, ReadabilityHistory uses a two-step confirmation).</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>1. Over several months of use, accumulate hundreds of notifications. 2. Observe the notification query loads all of them on every page load with no pagination or limit. 3. Attempt to delete old notifications -- no delete function is available. 4. Over time, notice the notification dropdown becoming sluggish.</t>
+          <t>1. Navigate to the Report Builder page. 2. Click 'Saved' in the sidebar to view saved reports. 3. Click the trash icon on any saved report. 4. Observe that the report is deleted immediately without any confirmation.</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>The notification system should include: (a) a deleteNotification function, (b) a clearAll or deleteOld function, (c) a query limit or pagination to prevent loading unbounded data, and (d) an automatic cleanup mechanism for old read notifications.</t>
+          <t>A confirmation dialog should appear before permanently deleting a saved report, consistent with the delete patterns used elsewhere in the application. The dialog should identify the report name and warn that this action cannot be undone.</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>Notifications can only be created and marked as read. They cannot be deleted. The query has no limit clause, loading all historical notifications on every mount.</t>
+          <t>Clicking the delete icon (line 522) directly invokes deleteReport(report.id) with no intermediate confirmation step. The report is irreversibly deleted with a single click.</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>Progressive performance degradation as notification count grows. Users cannot manage their notification inbox, leading to poor UX. Firestore read costs increase linearly with notification volume.</t>
+          <t>Users can accidentally delete carefully built custom reports with a single misclick. Reports may contain significant configuration effort (widgets, layouts, data sources) that cannot be recovered, leading to loss of work.</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -2008,49 +2008,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Data Integrity</t>
+          <t>Scope Gap</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>auditStorageService</t>
+          <t>ScheduledReportsPanel - Email Validation</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>src/lib/audit/auditStorageService.js:77</t>
+          <t>src/components/reports/ScheduledReportsPanel.jsx:661</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>The saveAudit function silently truncates audit data: issues are limited to the first 500 (line 77) and urlData is sampled to the first 100 (line 81). This truncation happens without notifying the user. For large sites with thousands of issues or URLs, the saved audit will be incomplete, and there is no indicator in the stored document that data was truncated. Users who later retrieve the audit will see partial data and may draw incorrect conclusions.</t>
+          <t>The scheduled report form accepts comma-separated recipient emails (line 661) but performs no email format validation. The handleSubmit function (line 645) only checks that the recipients field is not empty (line 652), then splits by comma and trims. Invalid email addresses like 'not-an-email', empty strings from double commas, or malformed addresses pass through without validation.</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>1. Run an audit on a large site that produces 1,000+ issues and 500+ URLs. 2. Save the audit using saveAudit. 3. Later retrieve the audit using getAudit. 4. Observe that only the first 500 issues and 100 URL data entries are present. 5. Note there is no field in the document indicating the data was truncated.</t>
+          <t>1. Open the Scheduled Reports panel. 2. Click 'New Schedule'. 3. Navigate to Step 3 (Delivery). 4. Enter invalid email addresses like 'abc, , not@valid, @@@' in the recipients field. 5. Submit the form.</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>The saved audit document should include a field like 'isTruncated: true' and 'originalIssueCount' to indicate data loss. Ideally, overflow data should be stored in subcollections or Firebase Storage to preserve the complete audit.</t>
+          <t>Each recipient email should be validated against a standard email format regex. Invalid emails should be highlighted with error messages, preventing form submission until all recipients have valid email addresses.</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>Data is silently truncated. The 'issueCount' field stores the original count (line 75), but the actual issues array is capped at 500 with no truncation indicator.</t>
+          <t>The form only checks that the recipients string is not blank (line 652). It splits by comma and filters empty strings, but 'abc', '@@@', and other malformed addresses are accepted as valid recipients, which would cause delivery failures.</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>Users may make business decisions based on incomplete audit data without knowing the data is partial. Critical issues beyond the 500-item cutoff will be invisible.</t>
+          <t>Scheduled reports with invalid recipient emails will silently fail to deliver. Users won't discover the issue until they notice missing reports, wasting scheduling effort and potentially missing critical report deadlines.</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2070,7 +2070,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
@@ -2082,37 +2082,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>useProjects</t>
+          <t>ReadabilityWeightConfig - State Persistence</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useProjects.js:49</t>
+          <t>src/components/readability/ReadabilityWeightConfig.jsx:26</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>The project lifecycle has no status management. The createProject function stores whatever is in projectData without enforcing an initial status. There is no defined project status workflow (e.g., draft -&gt; active -&gt; completed -&gt; archived), no status transitions, no validation that status changes are valid, and no mechanism to archive completed projects. The TASK_STATUS enum exists in roles.js (NOT_STARTED, IN_PROGRESS, IN_REVIEW, COMPLETED) but there is no equivalent PROJECT_STATUS, and the updateProject function accepts any arbitrary updates without validation.</t>
+          <t>The ReadabilityWeightConfig component stores custom weight configurations only in local component state. When the user adjusts weights and clicks 'Apply Weights', the onChange callback fires (line 41) but there is no persistence mechanism. The weights revert to defaults when the component remounts. The parent ReadabilityDashboard (line 447) only logs the weights to console. Custom weight configurations are lost on page navigation.</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>1. Create a project -- observe no default status is set. 2. Update the project status to 'completed'. 3. Update it again to 'not_started' -- observe no validation prevents backward transitions. 4. Try to archive a project -- no archive capability exists.</t>
+          <t>1. Analyze a URL with the AI Readability Checker. 2. On the dashboard, click 'Adjust Weights'. 3. Modify category weights (e.g., set AI Signals to 40%). 4. Click 'Apply Weights'. 5. Navigate away and return to the same analysis. 6. Open the weight config again and observe the weights have reverted to defaults.</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>Projects should have a defined lifecycle with valid status states and enforced transitions. There should be project archive functionality, and completed projects should have restricted editing.</t>
+          <t>Custom weight configurations should be persisted (via localStorage, Firestore, or user preferences) so that users can maintain their preferred scoring weights across sessions and analyses. The dashboard should recalculate scores when weights change.</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>No project status management exists. The updateProject function accepts any arbitrary field changes without validation. There is no project archival or lifecycle management.</t>
+          <t>Weights exist only in component state (useState on line 26). The parent's onChange handler (ReadabilityDashboard.jsx:448) only does console.log('Custom weights applied:', weights). There is no persistence and no recalculation of the overall or category scores with the new weights.</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>No way to formally close or archive projects. Projects remain active indefinitely in the user's project list. No workflow governance for project lifecycle transitions.</t>
+          <t>Users who configure custom weights for their industry or use case must re-configure them every time they view an analysis. The feature appears functional but provides no lasting value. Additionally, applying weights has no effect on the displayed scores.</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2132,49 +2132,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Audit Trail</t>
+          <t>Workflow Gap</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>useProjects</t>
+          <t>NotificationPanel - Missing Delete/Clear Functionality</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useProjects.js:66</t>
+          <t>src/components/shared/NotificationPanel.jsx:11</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Project create, update, and delete operations generate no audit log entries. There is an 'activity_log' collection referenced in useUserProfile.js (line 148), but no project CRUD operation writes to it. Critical actions like project deletion leave no trace of who deleted what and when. The updatedAt timestamp is maintained, but there is no record of what was changed or by whom.</t>
+          <t>The NotificationPanel provides 'Mark all as read' but has no ability to delete individual notifications or clear/archive notification history. The useNotifications hook exposes only markAsRead and markAllAsRead. Over time, the notification list grows unbounded with no way for users to remove stale, irrelevant, or actioned notifications.</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>1. Create a project. 2. Update the project name and description. 3. Delete the project. 4. Query the 'activity_log' collection for any entries related to this project. 5. Observe no audit log entries exist for any of these operations.</t>
+          <t>1. Accumulate several notifications by receiving task assignments, mentions, etc. 2. Mark all as read. 3. Attempt to delete a specific notification or clear the notification history. 4. Observe there is no delete or clear option available.</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>All project CRUD operations should create entries in the activity_log collection capturing: the action (create/update/delete), the userId, the projectId, a timestamp, and for updates, the fields that changed.</t>
+          <t>Users should be able to delete individual notifications (swipe or click delete) and clear all notifications or clear read notifications. There should also be a notification retention policy to automatically remove old notifications.</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>No audit logging occurs for any project CRUD operation. The activity_log collection exists but is not populated by project hooks.</t>
+          <t>The notification panel only supports reading notifications and marking them as read. There is no delete, clear, or archive functionality. Notifications accumulate indefinitely in the list.</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>No accountability for project changes. If a project is accidentally deleted or maliciously modified, there is no audit trail to investigate what happened or who was responsible.</t>
+          <t>Poor user experience as notification lists become cluttered over time. Users cannot distinguish between actionable and stale notifications. The 'View all notifications' link (line 172) routes to '/notifications' which doesn't appear to have additional management capabilities.</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -2194,49 +2194,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Scope Gap</t>
+          <t>Missing Feature</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>useSchemaLibrary</t>
+          <t>LinkToProjectModal - Unlink Capability</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useSchemaLibrary.js:108</t>
+          <t>src/components/shared/LinkToProjectModal.jsx:55</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>The deleteSchema function does not verify ownership before deletion. Any authenticated user who knows a schema ID can delete another user's schema from the library. Additionally, schemas can be marked as isPublic (line 75) to be shared, but there is no mechanism for other users to actually discover or query public schemas. The isPublic flag is stored but never used in any query, rendering the sharing feature non-functional.</t>
+          <t>The LinkToProjectModal allows linking items to projects but provides no mechanism to unlink an item from a project. Once an item is linked (handleLink function, line 55), the 'Linked' badge is shown (line 182) and the button becomes disabled. There is no unlink/remove association button or workflow. This is a missing CRUD operation - the 'Delete' part of linking is absent.</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>1. User A saves a schema with isPublic: true. 2. User B attempts to find public schemas -- no query or UI exists for this. 3. User B, if they know User A's schemaId, can call deleteSchema(schemaId) and delete User A's schema. 4. Observe no ownership check prevents this.</t>
+          <t>1. Open a tool item (e.g., audit result). 2. Click 'Link to Project'. 3. Link the item to a project. 4. Observe the project now shows 'Linked' status. 5. Attempt to unlink the item from the project. 6. Note there is no unlink option available.</t>
         </is>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>deleteSchema should verify the calling user owns the schema. Public schemas should be discoverable through a separate query that filters on isPublic: true across all users.</t>
+          <t>Already-linked projects should display an 'Unlink' button or toggle that allows removing the association. The modal should support bidirectional CRUD for project-item links (both link and unlink operations).</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>deleteSchema has no ownership check. The isPublic field exists but public schema discovery is not implemented -- the query at line 34 always filters by userId, so only the user's own schemas are ever visible.</t>
+          <t>The modal only supports one-way linking. Once linked, the project row shows a green 'Linked' badge and the button is disabled (line 151). There is no unlink action available. The user must manage project links through other means (if available) or cannot remove incorrect links at all.</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>Schema sharing feature is incomplete (isPublic flag is stored but non-functional). Any user can delete any schema they have the ID for.</t>
+          <t>Users who accidentally link an item to the wrong project, or who need to reorganize project associations, have no way to correct the linkage. This creates data management problems and reduces the usefulness of the project linking feature.</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
@@ -2256,49 +2256,49 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Workflow Gap</t>
+          <t>Audit Trail</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>retentionPolicy</t>
+          <t>SchemaLibraryPanel - Delete Without Audit</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>src/lib/retentionPolicy.js:38</t>
+          <t>src/components/schema-generator/SchemaLibraryPanel.jsx:82</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>The retention policy module defines retention periods and provides utility functions (calculateRetentionCutoff, isWithinRetention), but there is no actual enforcement mechanism. No scheduled job, cleanup function, or data pruning logic references these utilities. The retention policy is purely configuration with no implementation. Data that exceeds the configured retention period is never automatically purged.</t>
+          <t>Schema deletion in the Schema Library uses a browser confirm() dialog and does not log the deletion action. The handleDelete function (line 82) uses confirm() for confirmation and then directly calls deleteSchema. No audit trail entry is created for who deleted which schema and when. In a team environment, this makes it impossible to track schema library changes.</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>1. Configure a retention period of 30 days. 2. Create audit data and wait 31+ days. 3. Observe the data is still present and accessible. 4. Search the codebase for any code that calls calculateRetentionCutoff or isWithinRetention to actually delete expired data. 5. Find no enforcement implementation.</t>
+          <t>1. Navigate to the Schema Generator. 2. Open the Schema Library. 3. Delete a saved schema. 4. Confirm the browser dialog. 5. Check for any audit log entry recording the deletion. 6. Attempt to recover the deleted schema.</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>A background process or triggered function should periodically check data against the retention policy and purge or archive data that exceeds the configured retention period.</t>
+          <t>Schema deletions should be logged in an audit trail with the user who performed the deletion, the schema name/ID, and timestamp. A proper confirmation modal (consistent with the rest of the application) should be used instead of browser confirm(). Ideally, soft-delete or undo should be supported.</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>The retention policy is purely declarative. No code enforces it. The utility functions exist but are never called in a data cleanup context.</t>
+          <t>The handleDelete function (line 82-86) uses browser confirm() (not a styled modal), then calls deleteSchema with no audit logging. The deletion is permanent with no recovery option and no record of who deleted what.</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>Compliance risk: organizations expecting data to be automatically purged per retention policy will find data persists indefinitely. May violate GDPR, HIPAA, or other regulatory requirements around data retention.</t>
+          <t>In team environments, any user can delete shared schemas with no accountability. If a critical schema template is accidentally or maliciously deleted, there is no way to determine who did it or when. The use of browser confirm() is also inconsistent with the application's UI patterns.</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
@@ -2318,7 +2318,7 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
@@ -2330,37 +2330,37 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>storageHelpers</t>
+          <t>useMyTasks - Unfiltered Collection Query</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>src/utils/storageHelpers.js:186</t>
+          <t>src/hooks/useAssignments.js:241</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>The storageHelpers module maintains a parallel localStorage-based data system (time entries, project metadata, filter presets, activity log) that is completely disconnected from the Firestore-based system used by the hooks. For example, addTimeEntry in storageHelpers writes to localStorage, while useTimeTracking writes to Firestore. There is no synchronization between these two data stores, meaning data written via one mechanism is invisible to the other. This creates a split-brain data integrity problem.</t>
+          <t>The useMyTasks hook queries the entire 'checklist_assignments' collection with no server-side filtering (line 241). It fetches every assignment document across all projects, then filters client-side to find tasks assigned to the current user (line 252). This is a performance and data exposure issue - the client receives assignment data for all users across all projects.</t>
         </is>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>1. Use the useTimeTracking hook to log a time entry (writes to Firestore). 2. Call getTimeEntries from storageHelpers (reads from localStorage). 3. Observe the Firestore time entry does not appear in the localStorage results. 4. Similarly, call addTimeEntry from storageHelpers. 5. Observe the localStorage entry does not appear in the useTimeTracking hook's Firestore-sourced data.</t>
+          <t>1. Log in as any user. 2. Navigate to 'My Tasks'. 3. Observe network requests to Firestore. 4. Note that the query fetches all documents from the checklist_assignments collection with no where() clause.</t>
         </is>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>There should be a single source of truth for each data type. Either localStorage or Firestore should be used, not both. If both are needed (e.g., offline support), there should be a synchronization mechanism.</t>
+          <t>The query should use Firestore security rules and a server-side where() clause to only return assignments relevant to the current user. This could be achieved with an array-contains query on the assignedTo field or by restructuring the data to support efficient per-user queries.</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>Two independent, unsynchronized data stores exist for overlapping data (time entries, project metadata). Data written to one is invisible to the other.</t>
+          <t>The query on line 241 fetches the entire collection: query(collection(db, 'checklist_assignments')). All assignment data for all projects and all users is downloaded to the client before filtering. The comment on line 239 acknowledges this: 'This is a simplified version'.</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>Users may see inconsistent data depending on which component they interact with. Time entries, project metadata, and activity data can be lost or duplicated across the two unsynchronized stores.</t>
+          <t>As the application scales, this will cause significant performance degradation, increased Firestore read costs, and potential data exposure where users can access assignment details of other users through browser developer tools. This is both a performance and security concern.</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -2392,37 +2392,37 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>useReadabilityAnalysis</t>
+          <t>DueDatesWidget - View All Dead End</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>src/hooks/useReadabilityAnalysis.js:173</t>
+          <t>src/components/shared/DueDatesWidget.jsx:262</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>The enforceStorageLimit function auto-deletes the oldest analyses when the storage limit is exceeded, but this happens silently with no user notification or confirmation. Users lose historical analysis data without being warned beforehand. There is no warning when approaching the limit, no option to choose which analyses to delete, and no archive mechanism to preserve data in a cheaper storage tier before deletion.</t>
+          <t>The 'View all' button in the DueDatesWidget (displayed when there are more than 5 due dates) has no onClick handler and no navigation target. It renders as a button element with text showing the total count but clicking it does nothing. This is a workflow dead-end where users are informed that more items exist but cannot access them.</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>1. As an 'seo_specialist' role user (limit: 100 analyses), create 100 readability analyses. 2. Run a 101st analysis. 3. Observe that the oldest analysis is silently deleted to make room. 4. Note there was no warning that the limit was being approached, and no confirmation before the deletion occurred.</t>
+          <t>1. Create more than 5 due date items. 2. Observe the DueDatesWidget shows 5 items plus a 'View all (N)' button. 3. Click the 'View all' button. 4. Nothing happens.</t>
         </is>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Users should receive a warning when approaching their storage limit (e.g., at 80% and 90%). When the limit is reached, users should be given the option to delete specific analyses or upgrade their storage tier. Auto-deletion should be a last resort with explicit notification.</t>
+          <t>The 'View all' button should navigate to a full due dates management page, expand the widget to show all items, or open a modal with the complete list including sorting and filtering capabilities.</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>Oldest analyses are silently auto-deleted when the limit is reached. No warnings are issued when approaching the limit. Users discover data loss only when they notice missing historical analyses.</t>
+          <t>The button on line 262 is rendered as: &lt;button className="..."&gt;View all ({count})&lt;/button&gt; with no onClick handler, href, or any interactive behavior. It is a non-functional button.</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>Users lose historical analysis data without consent. This is particularly problematic for trend tracking (BRD US-2.5.2), as deleted analyses break the score progression history.</t>
+          <t>Users with many due dates cannot view or manage items beyond the first 5 displayed in the widget. This limits the usefulness of the due dates feature for active project managers who may have dozens of upcoming deadlines.</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -2442,59 +2442,1051 @@
           <t>SVP Project Management</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>Scope Gap</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>FeedbackWidget - No Admin Review Interface</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>src/components/shared/FeedbackWidget.jsx:68</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>The FeedbackWidget collects user feedback and saves it to a 'feedback' Firestore collection with a 'status: new' field (line 78), but there is no corresponding admin interface to review, respond to, or manage feedback submissions. The feedback data is written and never consumed, creating a write-only data sink with no lifecycle management.</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>1. Submit feedback via the FeedbackWidget. 2. Verify the feedback is saved to Firestore. 3. Search the application for any admin panel or interface to view submitted feedback. 4. No such interface exists.</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>There should be an admin-accessible feedback management interface where team leads or administrators can review submissions, update status (new/in-review/resolved/closed), respond to users, and generate insights from feedback patterns.</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>Feedback is collected and stored in Firestore with 'status: new' but no part of the application reads or manages this data. The status field suggests a lifecycle was intended but never implemented. Feedback accumulates indefinitely with no review process.</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>User feedback is effectively lost despite being stored. The feedback feature creates a false expectation that submissions will be reviewed and acted upon. Without a management interface, the feature provides no value to the product team and occupies Firestore storage without purpose.</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>R08-032</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Permission Issue</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>useProjects</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useProjects.js:80</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>The deleteProject function performs no authorization check before deleting a project document from Firestore. Any authenticated user who obtains a projectId can call deleteProject and permanently remove it, regardless of whether they are the owner or have the canDeleteProjects permission. The roles.js file defines canDeleteProjects as true only for ADMIN, yet this permission is never checked.</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>1. Log in as a user with the 'content_writer' role (canDeleteProjects: false). 2. Obtain or guess a projectId belonging to another user. 3. Call deleteProject(projectId) from the hook. 4. Observe the project is permanently deleted without any ownership or permission validation.</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>deleteProject should verify that the calling user has the canDeleteProjects permission (via hasPermission from roles.js) AND is the owner of the project, or is an admin. Unauthorized delete attempts should be rejected with an appropriate error.</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>deleteProject immediately calls deleteDoc on the provided projectId with no ownership or permission check. Any authenticated user can delete any project.</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>Critical data loss risk. Any authenticated user can delete projects belonging to other users, destroying all associated project data. This undermines the entire role-based permission model defined in roles.js.</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>R08-033</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Data Integrity</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>useProjects</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useProjects.js:80</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>When a project is deleted, there is no cascade cleanup of related data. The system stores comments (useComments), file attachments (useFileAttachments), time entries (useTimeTracking), project links (useProjectLinkedItems), and due dates (useDueDates) that all reference the projectId. Deleting a project leaves all of these child records orphaned in Firestore, creating data integrity issues and potential storage waste.</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>1. Create a project and add comments, file attachments, time entries, linked items, and due dates to it. 2. Delete the project using deleteProject. 3. Query the 'comments', 'attachments', 'time_entries', 'projectLinks', and 'due_dates' collections for the deleted projectId. 4. Observe all child records still exist as orphans.</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>Deleting a project should cascade delete or archive all associated child records (comments, attachments, time entries, project links, due dates) or at minimum use a soft-delete pattern that marks the project as deleted while preserving referential integrity.</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>Only the project document itself is deleted. All associated child records remain in Firestore as orphans with references to a non-existent project.</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>Orphaned data accumulates over time, increasing storage costs and causing confusion when orphaned records appear in queries. File attachments in Firebase Storage associated with deleted projects remain, consuming storage with no way to clean them up.</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>R08-034</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Permission Issue</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>useComments</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useComments.js:94</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>The deleteComment and updateComment functions do not verify that the calling user is the author of the comment. Any authenticated user who can access a project can delete or modify any other user's comments. Additionally, the isInternal flag on comments (which controls visibility for internal-only comments) has no permission enforcement -- the CLIENT role (which has canViewInternal: false) could potentially see or modify internal comments if they have access to the itemId.</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>1. User A adds a comment on a checklist item. 2. User B (different user, same project) calls deleteComment(commentId) with User A's comment ID. 3. Observe the comment is deleted without any ownership verification. 4. Alternatively, User B calls updateComment to modify User A's comment text.</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>deleteComment and updateComment should verify the calling user is the comment author (or an admin). Internal comments should only be visible to users with canViewInternal permission.</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Both deleteComment and updateComment accept any commentId and execute the operation without ownership checks. Internal comments have no access control enforcement.</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>Users can tamper with or delete other users' comments, destroying audit trail evidence and collaboration history. Internal comments may be visible to client-role users.</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>R08-035</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
           <t>Audit Trail</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>useComments</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useComments.js:80</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>The updateComment function updates the comment text and sets updatedAt, but does not append the previous version to the editHistory array that is initialized as an empty array on comment creation (line 64). The editHistory field exists in the data model but is never populated, making it impossible to track what a comment originally said or who changed it.</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>1. Add a comment to a checklist item. Note the editHistory is initialized as []. 2. Edit the comment using updateComment. 3. Check the comment document in Firestore. 4. Observe that editHistory is still an empty array -- the previous text was not preserved.</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>When a comment is updated, the previous text, the editor's userId, and a timestamp should be appended to the editHistory array, preserving a complete audit trail of all comment revisions.</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>The editHistory array is created but never written to during updates. The updateDoc call at line 83 only sets 'text' and 'updatedAt', ignoring editHistory entirely.</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>No audit trail for comment edits. In regulated environments or contentious projects, the inability to see what a comment originally said undermines accountability and compliance requirements.</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>R08-036</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Permission Issue</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>useTimeTracking</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useTimeTracking.js:166</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>The deleteEntry function for time tracking performs no ownership verification. Any user who knows a time entry ID can delete any other user's time entry. The hook loads all time entries for a project (not filtered by user), so all entries are visible to all project participants, but the delete operation should be restricted to the entry owner or an admin.</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
+          <t>1. User A starts and stops a timer, creating a time entry. 2. User B on the same project calls deleteEntry(entryId) with User A's entry ID. 3. Observe the time entry is deleted without any ownership check.</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>deleteEntry should verify the calling user is the entry owner (entry.userId === currentUser.uid) or has admin privileges before allowing deletion.</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>deleteEntry directly calls deleteDoc without any ownership verification. Any authenticated user can delete any time entry they have the ID for.</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>Time tracking data can be tampered with by any project member, undermining project management accuracy and potentially allowing billing fraud.</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>R08-037</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Permission Issue</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>useFileAttachments</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useFileAttachments.js:171</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>The deleteFile function does not verify that the current user is the uploader of the file (uploadedBy field). Any user with access to the project and item can delete file attachments uploaded by other users. The attachment metadata includes 'uploadedBy' (line 142) but this field is never checked during deletion.</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>1. User A uploads a file attachment to a checklist item. 2. User B, who also has access to the project, calls deleteFile(attachmentId). 3. Observe the file is deleted from both Firebase Storage and Firestore without ownership verification.</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>deleteFile should check that currentUser.uid matches attachment.uploadedBy, or that the user has admin/project-manager privileges, before allowing deletion.</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>deleteFile finds the attachment in the local state array and immediately deletes it from both Storage and Firestore without any authorization check.</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Users can delete other team members' file uploads, potentially destroying evidence, deliverables, or compliance documentation.</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>R08-038</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Scope Gap</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>src/utils/roles.js:95</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>The permission system defined in roles.js is comprehensive but almost entirely unenforced in the CRUD hooks. The ROLE_PERMISSIONS matrix defines granular permissions (canCreateProjects, canDeleteProjects, canAssignTasks, canEditAllItems, canViewAllProjects, canManageTeam, etc.), and the hasPermission() utility function exists, but none of the data mutation hooks (useProjects, useComments, useTimeTracking, useFileAttachments, useSchemaLibrary, useReportBuilder, useDueDates, useProjectLinkedItems) import or call hasPermission() before performing create/update/delete operations.</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>1. Search the entire codebase (hooks directory) for imports of 'hasPermission' or 'ROLE_PERMISSIONS' from roles.js. 2. Observe that none of the CRUD hooks reference the permission system. 3. Log in as a CLIENT role user (canCreateProjects: false, canExport: false). 4. Attempt to create a project via createProject -- observe it succeeds despite the permission matrix saying otherwise.</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>All CRUD hooks should enforce the permission matrix defined in roles.js. For example, createProject should check hasPermission(userRole, 'canCreateProjects') before allowing the operation.</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>The permission matrix in roles.js is purely decorative. No CRUD hook enforces these permissions, making the entire role-based access control system non-functional at the data layer.</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>The defined role hierarchy (Admin &gt; PM &gt; SEO Specialist &gt; Developer &gt; Content Writer &gt; Client) is not enforced. Clients can create projects, delete data, and perform actions explicitly forbidden by their role. This is a fundamental security gap.</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>R08-039</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Workflow Gap</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>useNotifications</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useNotifications.js:77</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>The useNotifications hook only provides markAsRead and markAllAsRead operations but has no capability to delete notifications. Over time, users will accumulate an unbounded number of notification documents in Firestore. The query at line 30 loads ALL notifications for the user with no limit, which will cause performance degradation as the notification count grows. There is also no mechanism for notification expiry or cleanup.</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>1. Over several months of use, accumulate hundreds of notifications. 2. Observe the notification query loads all of them on every page load with no pagination or limit. 3. Attempt to delete old notifications -- no delete function is available. 4. Over time, notice the notification dropdown becoming sluggish.</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>The notification system should include: (a) a deleteNotification function, (b) a clearAll or deleteOld function, (c) a query limit or pagination to prevent loading unbounded data, and (d) an automatic cleanup mechanism for old read notifications.</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Notifications can only be created and marked as read. They cannot be deleted. The query has no limit clause, loading all historical notifications on every mount.</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>Progressive performance degradation as notification count grows. Users cannot manage their notification inbox, leading to poor UX. Firestore read costs increase linearly with notification volume.</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>R08-040</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Data Integrity</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>auditStorageService</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>src/lib/audit/auditStorageService.js:77</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>The saveAudit function silently truncates audit data: issues are limited to the first 500 (line 77) and urlData is sampled to the first 100 (line 81). This truncation happens without notifying the user. For large sites with thousands of issues or URLs, the saved audit will be incomplete, and there is no indicator in the stored document that data was truncated. Users who later retrieve the audit will see partial data and may draw incorrect conclusions.</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>1. Run an audit on a large site that produces 1,000+ issues and 500+ URLs. 2. Save the audit using saveAudit. 3. Later retrieve the audit using getAudit. 4. Observe that only the first 500 issues and 100 URL data entries are present. 5. Note there is no field in the document indicating the data was truncated.</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>The saved audit document should include a field like 'isTruncated: true' and 'originalIssueCount' to indicate data loss. Ideally, overflow data should be stored in subcollections or Firebase Storage to preserve the complete audit.</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Data is silently truncated. The 'issueCount' field stores the original count (line 75), but the actual issues array is capped at 500 with no truncation indicator.</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>Users may make business decisions based on incomplete audit data without knowing the data is partial. Critical issues beyond the 500-item cutoff will be invisible.</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>R08-041</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Lifecycle Issue</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>useProjects</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useProjects.js:49</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>The project lifecycle has no status management. The createProject function stores whatever is in projectData without enforcing an initial status. There is no defined project status workflow (e.g., draft -&gt; active -&gt; completed -&gt; archived), no status transitions, no validation that status changes are valid, and no mechanism to archive completed projects. The TASK_STATUS enum exists in roles.js (NOT_STARTED, IN_PROGRESS, IN_REVIEW, COMPLETED) but there is no equivalent PROJECT_STATUS, and the updateProject function accepts any arbitrary updates without validation.</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>1. Create a project -- observe no default status is set. 2. Update the project status to 'completed'. 3. Update it again to 'not_started' -- observe no validation prevents backward transitions. 4. Try to archive a project -- no archive capability exists.</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>Projects should have a defined lifecycle with valid status states and enforced transitions. There should be project archive functionality, and completed projects should have restricted editing.</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>No project status management exists. The updateProject function accepts any arbitrary field changes without validation. There is no project archival or lifecycle management.</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>No way to formally close or archive projects. Projects remain active indefinitely in the user's project list. No workflow governance for project lifecycle transitions.</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>R08-042</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Audit Trail</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>useProjects</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useProjects.js:66</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>Project create, update, and delete operations generate no audit log entries. There is an 'activity_log' collection referenced in useUserProfile.js (line 148), but no project CRUD operation writes to it. Critical actions like project deletion leave no trace of who deleted what and when. The updatedAt timestamp is maintained, but there is no record of what was changed or by whom.</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>1. Create a project. 2. Update the project name and description. 3. Delete the project. 4. Query the 'activity_log' collection for any entries related to this project. 5. Observe no audit log entries exist for any of these operations.</t>
+        </is>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>All project CRUD operations should create entries in the activity_log collection capturing: the action (create/update/delete), the userId, the projectId, a timestamp, and for updates, the fields that changed.</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>No audit logging occurs for any project CRUD operation. The activity_log collection exists but is not populated by project hooks.</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>No accountability for project changes. If a project is accidentally deleted or maliciously modified, there is no audit trail to investigate what happened or who was responsible.</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>R08-043</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Scope Gap</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>useSchemaLibrary</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useSchemaLibrary.js:108</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>The deleteSchema function does not verify ownership before deletion. Any authenticated user who knows a schema ID can delete another user's schema from the library. Additionally, schemas can be marked as isPublic (line 75) to be shared, but there is no mechanism for other users to actually discover or query public schemas. The isPublic flag is stored but never used in any query, rendering the sharing feature non-functional.</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
+          <t>1. User A saves a schema with isPublic: true. 2. User B attempts to find public schemas -- no query or UI exists for this. 3. User B, if they know User A's schemaId, can call deleteSchema(schemaId) and delete User A's schema. 4. Observe no ownership check prevents this.</t>
+        </is>
+      </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>deleteSchema should verify the calling user owns the schema. Public schemas should be discoverable through a separate query that filters on isPublic: true across all users.</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>deleteSchema has no ownership check. The isPublic field exists but public schema discovery is not implemented -- the query at line 34 always filters by userId, so only the user's own schemas are ever visible.</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>Schema sharing feature is incomplete (isPublic flag is stored but non-functional). Any user can delete any schema they have the ID for.</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>R08-044</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Workflow Gap</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>retentionPolicy</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>src/lib/retentionPolicy.js:38</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>The retention policy module defines retention periods and provides utility functions (calculateRetentionCutoff, isWithinRetention), but there is no actual enforcement mechanism. No scheduled job, cleanup function, or data pruning logic references these utilities. The retention policy is purely configuration with no implementation. Data that exceeds the configured retention period is never automatically purged.</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>1. Configure a retention period of 30 days. 2. Create audit data and wait 31+ days. 3. Observe the data is still present and accessible. 4. Search the codebase for any code that calls calculateRetentionCutoff or isWithinRetention to actually delete expired data. 5. Find no enforcement implementation.</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>A background process or triggered function should periodically check data against the retention policy and purge or archive data that exceeds the configured retention period.</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>The retention policy is purely declarative. No code enforces it. The utility functions exist but are never called in a data cleanup context.</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>Compliance risk: organizations expecting data to be automatically purged per retention policy will find data persists indefinitely. May violate GDPR, HIPAA, or other regulatory requirements around data retention.</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>R08-045</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Data Integrity</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>storageHelpers</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>src/utils/storageHelpers.js:186</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>The storageHelpers module maintains a parallel localStorage-based data system (time entries, project metadata, filter presets, activity log) that is completely disconnected from the Firestore-based system used by the hooks. For example, addTimeEntry in storageHelpers writes to localStorage, while useTimeTracking writes to Firestore. There is no synchronization between these two data stores, meaning data written via one mechanism is invisible to the other. This creates a split-brain data integrity problem.</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>1. Use the useTimeTracking hook to log a time entry (writes to Firestore). 2. Call getTimeEntries from storageHelpers (reads from localStorage). 3. Observe the Firestore time entry does not appear in the localStorage results. 4. Similarly, call addTimeEntry from storageHelpers. 5. Observe the localStorage entry does not appear in the useTimeTracking hook's Firestore-sourced data.</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>There should be a single source of truth for each data type. Either localStorage or Firestore should be used, not both. If both are needed (e.g., offline support), there should be a synchronization mechanism.</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>Two independent, unsynchronized data stores exist for overlapping data (time entries, project metadata). Data written to one is invisible to the other.</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>Users may see inconsistent data depending on which component they interact with. Time entries, project metadata, and activity data can be lost or duplicated across the two unsynchronized stores.</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>R08-046</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Workflow Gap</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>useReadabilityAnalysis</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>src/hooks/useReadabilityAnalysis.js:173</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>The enforceStorageLimit function auto-deletes the oldest analyses when the storage limit is exceeded, but this happens silently with no user notification or confirmation. Users lose historical analysis data without being warned beforehand. There is no warning when approaching the limit, no option to choose which analyses to delete, and no archive mechanism to preserve data in a cheaper storage tier before deletion.</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
+          <t>1. As an 'seo_specialist' role user (limit: 100 analyses), create 100 readability analyses. 2. Run a 101st analysis. 3. Observe that the oldest analysis is silently deleted to make room. 4. Note there was no warning that the limit was being approached, and no confirmation before the deletion occurred.</t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>Users should receive a warning when approaching their storage limit (e.g., at 80% and 90%). When the limit is reached, users should be given the option to delete specific analyses or upgrade their storage tier. Auto-deletion should be a last resort with explicit notification.</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Oldest analyses are silently auto-deleted when the limit is reached. No warnings are issued when approaching the limit. Users discover data loss only when they notice missing historical analyses.</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t>Users lose historical analysis data without consent. This is particularly problematic for trend tracking (BRD US-2.5.2), as deleted analyses break the score progression history.</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>R08-047</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SVP Project Management</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Audit Trail</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>auditStorageService</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>src/lib/audit/auditStorageService.js:296</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>The shared audit view count increment in getSharedAudit (line 297-298) uses a non-atomic read-then-write pattern. The current viewCount is read from the document, incremented in JavaScript, and written back. Under concurrent access, multiple viewers could read the same viewCount value simultaneously and all write the same incremented value, resulting in lost view counts. Firestore provides the increment() server-side function specifically for this use case.</t>
         </is>
       </c>
-      <c r="H32" s="4" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>1. Create a shared audit link. 2. Have 10 users access the shared link simultaneously. 3. Observe the viewCount in Firestore. 4. Note the viewCount may be less than 10 due to lost concurrent updates.</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t>Use Firestore's increment() function (from firebase/firestore) for atomic counter updates: updateDoc(shareRef, { viewCount: increment(1) }).</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J48" s="4" t="inlineStr">
         <is>
           <t>View count uses non-atomic read-modify-write: reads shareData.viewCount, adds 1 in JavaScript, then writes back. This is subject to race conditions under concurrent access.</t>
         </is>
       </c>
-      <c r="K32" s="4" t="inlineStr">
+      <c r="K48" s="4" t="inlineStr">
         <is>
           <t>Shared audit view counts may be inaccurate under concurrent access. While not business-critical, inaccurate analytics undermine trust in the reporting system.</t>
         </is>
       </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>OPEN</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L32"/>
+  <autoFilter ref="A1:L48"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>